--- a/src/main/java/COM/KOTAKPFMS/QA/CONFIG/Setup.xlsx
+++ b/src/main/java/COM/KOTAKPFMS/QA/CONFIG/Setup.xlsx
@@ -5,30 +5,40 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KOTAK_PFMS\KOTAK_PFMS\src\main\java\COM\KOTAKPFMS\QA\CONFIG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KOTAK_PFMS\KOTAK_PFMSV2\src\main\java\COM\KOTAKPFMS\QA\CONFIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14920" windowHeight="3750" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14920" windowHeight="3750" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="User_CreateApproveView" sheetId="20" r:id="rId1"/>
-    <sheet name="User_ModifyRepairApproveView" sheetId="8" r:id="rId2"/>
-    <sheet name="User_RemoveApproveView" sheetId="7" r:id="rId3"/>
-    <sheet name="User_BlockUnblockApproveView" sheetId="11" r:id="rId4"/>
-    <sheet name="Profile_AddApproveList" sheetId="17" r:id="rId5"/>
-    <sheet name="Profile_ModifyRepairApproveList" sheetId="22" r:id="rId6"/>
-    <sheet name="Profile_RemoveApproveList" sheetId="23" r:id="rId7"/>
-    <sheet name="IFSC_List" sheetId="5" r:id="rId8"/>
-    <sheet name="IFSC_Add" sheetId="9" r:id="rId9"/>
-    <sheet name="IFSC_Delete" sheetId="10" r:id="rId10"/>
-    <sheet name="Calendar_Add" sheetId="12" r:id="rId11"/>
-    <sheet name="Calendar_Approve_View" sheetId="13" r:id="rId12"/>
-    <sheet name="Calendar_View" sheetId="14" r:id="rId13"/>
-    <sheet name="Calendar_Modify" sheetId="15" r:id="rId14"/>
-    <sheet name="DBLoad_Upload_IFSCCodes" sheetId="16" r:id="rId15"/>
+    <sheet name="User_Create_InvalidData" sheetId="31" r:id="rId2"/>
+    <sheet name="User_ModifyRepairApproveView" sheetId="8" r:id="rId3"/>
+    <sheet name="User_ModifyRepairInvalidData" sheetId="32" r:id="rId4"/>
+    <sheet name="User_RemoveApproveView" sheetId="7" r:id="rId5"/>
+    <sheet name="User_BlockUnblockApproveView" sheetId="11" r:id="rId6"/>
+    <sheet name="Profile_AddApproveList" sheetId="35" r:id="rId7"/>
+    <sheet name="Profile_ModifyRepairApproveList" sheetId="36" r:id="rId8"/>
+    <sheet name="Profile_RemoveApproveList" sheetId="23" r:id="rId9"/>
+    <sheet name="IFSC_List" sheetId="5" r:id="rId10"/>
+    <sheet name="IFSC_Add" sheetId="9" r:id="rId11"/>
+    <sheet name="IFSC_Delete" sheetId="10" r:id="rId12"/>
+    <sheet name="Calendar_Create_Valid" sheetId="39" r:id="rId13"/>
+    <sheet name="Calendar_Create_Invalid" sheetId="40" r:id="rId14"/>
+    <sheet name="Calendar_Modify" sheetId="41" r:id="rId15"/>
+    <sheet name="Calendar_Approve_View" sheetId="38" r:id="rId16"/>
+    <sheet name="Calendar_View" sheetId="37" r:id="rId17"/>
+    <sheet name="DBLoad_Upload_IFSCCodes" sheetId="16" r:id="rId18"/>
+    <sheet name="Group_CreateApproveView" sheetId="25" r:id="rId19"/>
+    <sheet name="Group_CreateInvalidData" sheetId="33" r:id="rId20"/>
+    <sheet name="Group_ModifyInvalidData" sheetId="34" r:id="rId21"/>
+    <sheet name="Group_ModifyApproveView" sheetId="27" r:id="rId22"/>
+    <sheet name="Group_RemoveApproveView" sheetId="28" r:id="rId23"/>
+    <sheet name="Group_BlockApproveView" sheetId="29" r:id="rId24"/>
+    <sheet name="Group_UnBlockApproveView" sheetId="30" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="375">
   <si>
     <t>Username</t>
   </si>
@@ -229,9 +239,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>ISOCode</t>
-  </si>
-  <si>
     <t>PaymentType</t>
   </si>
   <si>
@@ -253,12 +260,6 @@
     <t>gdg</t>
   </si>
   <si>
-    <t>Year1</t>
-  </si>
-  <si>
-    <t>Year2</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -277,9 +278,6 @@
     <t>//testing with existing data</t>
   </si>
   <si>
-    <t>//Approve the record</t>
-  </si>
-  <si>
     <t>//Reject the record</t>
   </si>
   <si>
@@ -292,9 +290,6 @@
     <t>@##$</t>
   </si>
   <si>
-    <t>hbjj</t>
-  </si>
-  <si>
     <t>//View Calendar with Valid data</t>
   </si>
   <si>
@@ -331,21 +326,6 @@
     <t>Reject</t>
   </si>
   <si>
-    <t>To Repair</t>
-  </si>
-  <si>
-    <t>TestMaker444</t>
-  </si>
-  <si>
-    <t>TestChecker555</t>
-  </si>
-  <si>
-    <t>TestChecker666</t>
-  </si>
-  <si>
-    <t>Secure@123</t>
-  </si>
-  <si>
     <t>GroupName</t>
   </si>
   <si>
@@ -355,27 +335,12 @@
     <t>ACTIVE</t>
   </si>
   <si>
-    <t>testuser4</t>
-  </si>
-  <si>
     <t>Profile Name</t>
   </si>
   <si>
     <t>Profile Description</t>
   </si>
   <si>
-    <t>TestProfile111</t>
-  </si>
-  <si>
-    <t>TestProfile112</t>
-  </si>
-  <si>
-    <t>TestProfile113</t>
-  </si>
-  <si>
-    <t>Test Profile</t>
-  </si>
-  <si>
     <t>Original Profile Name</t>
   </si>
   <si>
@@ -394,20 +359,827 @@
     <t>Original GroupName</t>
   </si>
   <si>
-    <t>testname</t>
-  </si>
-  <si>
-    <t>tmaker2</t>
-  </si>
-  <si>
     <t>Original Username</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>SecurityParameters</t>
+  </si>
+  <si>
+    <t>DeSelect</t>
+  </si>
+  <si>
+    <t>System Inherited Security Parameters</t>
+  </si>
+  <si>
+    <t>//Valid data</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Is Customer</t>
+  </si>
+  <si>
+    <t>Password Authentication</t>
+  </si>
+  <si>
+    <t>Test Group</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Deselect</t>
+  </si>
+  <si>
+    <t>Swift BIC</t>
+  </si>
+  <si>
+    <t>Sort Priority</t>
+  </si>
+  <si>
+    <t>Non-Inquiry Users</t>
+  </si>
+  <si>
+    <t>Group Inherited</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>admin2</t>
+  </si>
+  <si>
+    <t>Admin User 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>$%$</t>
+  </si>
+  <si>
+    <t>tmaker1</t>
+  </si>
+  <si>
+    <t>//Duplicate Record</t>
+  </si>
+  <si>
+    <t>//Mandatory Field Blank</t>
+  </si>
+  <si>
+    <t>//Invalid Data</t>
+  </si>
+  <si>
+    <t>//Mandatory Fields Blank</t>
+  </si>
+  <si>
+    <t>testingUser0076</t>
+  </si>
+  <si>
+    <t>//Valid Data For Invalid Scenario</t>
+  </si>
+  <si>
+    <t>//Invalid Data for Valid Scenario</t>
+  </si>
+  <si>
+    <t>testUser987</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>//Invalid IFSC Code</t>
+  </si>
+  <si>
+    <t>testUser989</t>
+  </si>
+  <si>
+    <t>testUser999</t>
+  </si>
+  <si>
+    <t>BRANCH</t>
+  </si>
+  <si>
+    <t>SWIFTBIC</t>
+  </si>
+  <si>
+    <t>//Invalid SWIFT BIC</t>
+  </si>
+  <si>
+    <t>//Invalid BRANCH</t>
+  </si>
+  <si>
+    <t>//Invalid Data(Invalid Field)</t>
+  </si>
+  <si>
+    <t>ABDC</t>
+  </si>
+  <si>
+    <t>ABCD0000000</t>
+  </si>
+  <si>
+    <t>ADKD#K</t>
+  </si>
+  <si>
+    <t>//Non Alphanumeric IFSC</t>
+  </si>
+  <si>
+    <t>testUser965</t>
+  </si>
+  <si>
+    <t>testUser9976</t>
+  </si>
+  <si>
+    <t>Test16543</t>
+  </si>
+  <si>
+    <t>checker11</t>
+  </si>
+  <si>
+    <t>Checker11</t>
+  </si>
+  <si>
+    <t>//Valid Data</t>
+  </si>
+  <si>
+    <t>Test5765</t>
+  </si>
+  <si>
+    <t>Tes5269</t>
+  </si>
+  <si>
+    <t>//No record</t>
+  </si>
+  <si>
+    <t>Test1002</t>
+  </si>
+  <si>
+    <t>TestingUser1004</t>
+  </si>
+  <si>
+    <t>Test5463</t>
+  </si>
+  <si>
+    <t>Test56</t>
+  </si>
+  <si>
+    <t>//Details Field Blank</t>
+  </si>
+  <si>
+    <t>//Name and Details Both Blank</t>
+  </si>
+  <si>
+    <t>//Name Field Blank</t>
+  </si>
+  <si>
+    <t>//Name Field Value Blank</t>
+  </si>
+  <si>
+    <t>//Details Field Value Blank</t>
+  </si>
+  <si>
+    <t>//Name and Details Field Value Blank</t>
+  </si>
+  <si>
+    <t>GROUP4657</t>
+  </si>
+  <si>
+    <t>Original Group Name</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>TEST555</t>
+  </si>
+  <si>
+    <t>test4356</t>
+  </si>
+  <si>
+    <t>TESTING2_MAKER</t>
+  </si>
+  <si>
+    <t>Test3420</t>
+  </si>
+  <si>
+    <t>GROUP010</t>
+  </si>
+  <si>
+    <t>GROUP011</t>
+  </si>
+  <si>
+    <t>GROUP012</t>
+  </si>
+  <si>
+    <t>GROUP013</t>
+  </si>
+  <si>
+    <t>GROUP014</t>
+  </si>
+  <si>
+    <t>TESTER A</t>
+  </si>
+  <si>
+    <t>TESTINGGROUP1</t>
+  </si>
+  <si>
+    <t>Test010</t>
+  </si>
+  <si>
+    <t>TEST000</t>
+  </si>
+  <si>
+    <t>MAKERS</t>
+  </si>
+  <si>
+    <t>Password(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Logout(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Log-View(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Security Parameters-View(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Security Parameters-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Security Parameters-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>User-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>User-Modify/Repair(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>User-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>User-Block/Unblock(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>User-Remove(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Group-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Group-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Group-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Group-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Group-Block(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Group-Unblock(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Group-Remove(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Group-ReportBuild(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Group-ReportView(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Profiles-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Profiles-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Profiles-Modify/Repair(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Profiles-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Profiles-Remove(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Profiles-ReportBuild(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Profiles-ReportView(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Environment-Run(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Environment-Show(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Calendar-View(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Calendar-Create(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Calendar-Modify/Repair(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Calendar-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Certificate-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Certificate-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Certificate-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Certificate-Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Customer-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Customer-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Customer-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Customer-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Customer-Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Customer-Confirm Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>DB Loads(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Parameter Maintenance(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Distribution Sets-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Distribution Sets-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Distribution Sets-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Distribution Sets-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Distribution Sets-Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Messages-View(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Messages-New(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>FTP-SFTP Parameters-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>FTP-SFTP Parameters-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>FTP-SFTP Parameters-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>FTP-SFTP Parameters-FTP-SFTP File List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Server Folder View(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Application Support Tools-System Info(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Lock Management(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Log Explorer(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Check All(Y/N)</t>
+  </si>
+  <si>
+    <t>UnCheck All(Y/N)</t>
+  </si>
+  <si>
+    <t>testprofile</t>
+  </si>
+  <si>
+    <t>testin@2</t>
+  </si>
+  <si>
+    <t>testing372736</t>
+  </si>
+  <si>
+    <t>Administrative Change-Generate(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Administrative Change-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Active Users-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Active Users-Force Logout(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Inactivity Report(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Security Incidents(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>User-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>User-Report(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Environment-Global Process(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Access Time-View(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Access Time-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Access Time-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>UserPersonalization(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>HandlerStatus(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Bank Interface Parameter-View(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Bank Interface Parameter-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Console Notification-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Console Notification-Send(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>List Payment Files(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>List AV Files(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>List DSC Enrollment(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Verify DSC Enrollment(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Approve DSC Enrollment(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Maker(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Checker(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Agency File-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Agency File-Approve File(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Agency File-Agency Dashboard(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Payment List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Manual Intervention-Main Posting(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Manual Intervention-DSC Reprocess(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Manual Intervention-Approve DSC Reprocess(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Manual Intervention-Repost Transaction(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Manual Intervention-Db Connection(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Manual Intervention-Ack Generation(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Late Return-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Late Return-File Upload(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Manual Intervention-File Upload(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>ACH/APBS Reprocess(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NEFT Reprocess(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM Enquiry(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>AV Repost Files(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>PFMSDashboard(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>PFMSAgencyDashboard(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>ACKNACKDashboard(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>AVDashboard(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Missing Debit Advice List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Account-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Account-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Account-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Account-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Account-Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Account-Confirm Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Account Certificate Upload(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Account Certificate List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>User Manual-Upload(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>User Manual-Download(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>User Manual-Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Reporting High Value Transaction List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Reporting High Value Transaction Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Reporting High Value Transaction Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Reporting High Value Transaction Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Reporting High Value Transaction Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Scheme Code Maintenance-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Scheme Code Maintenance-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Scheme Code Maintenance-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Scheme Code Maintenance-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Scheme Code Maintenance-Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Scheme Code Maintenance-Upload(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Scheme Code Maintenance-Bulk Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>ErrorCode-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>ErrorCode-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>ErrorCode-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>ErrorCode-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>ErrorCode-Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>ErrorCode-Upload(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>ErrorCode-Bulk Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>PPA Expiry Days-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>PPA Expiry Days-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>PPA Expiry Days-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>PPA Expiry Days-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>PPA Expiry Date-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>PPA Expiry Date-Update(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>PPA Expiry Date-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>DebitHotList-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>DebitHotList-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>DebitHotList-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>DebitHotList-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>DebitHotList-Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>DebitHotList-Upload(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>DebitHotList-Bulk Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM Account Master-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM Account Master-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM Account Master-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM Account Master-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM Account Master-Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM API Account Master-List(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM API Account Master-Add(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM API Account Master-Approve(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM API Account Master-Modify(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NHM API Account Master-Delete(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Report-Transaction Report(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Report-Operation Report(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NACH Payment Report(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>NPCI Exception Report(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Report-Zero Byte File(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Injection Statistics(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Server Connections(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Queue Message Uploader(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Queue Message Downloader(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Instance Name(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Application Support Tools-PPA Upload(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Execute Query(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Manual Intervention-Bulk Posting(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>Report-Reconciliation(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>File Status Report(Select/DeSelect)</t>
+  </si>
+  <si>
+    <t>TestingProfileA03</t>
+  </si>
+  <si>
+    <t>TestingProfileA04</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>$%@#</t>
+  </si>
+  <si>
+    <t>SendToRepair</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>#$@#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +1202,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,8 +1243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -515,12 +1308,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -557,7 +1422,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -568,8 +1432,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -585,6 +1447,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -866,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -878,22 +1763,25 @@
     <col min="2" max="2" width="26.90625" customWidth="1"/>
     <col min="3" max="3" width="28.54296875" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="10" max="10" width="19.36328125" customWidth="1"/>
-    <col min="11" max="11" width="28.6328125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="14" max="14" width="27.1796875" customWidth="1"/>
-    <col min="15" max="16" width="30.7265625" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="16" max="16" width="27.1796875" customWidth="1"/>
+    <col min="17" max="18" width="30.7265625" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="21" max="21" width="35.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -911,43 +1799,49 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="26" t="s">
+      <c r="R1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S1" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -961,34 +1855,41 @@
       <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -1003,76 +1904,285 @@
         <v>13</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>97</v>
+      <c r="S3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J4" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5">
+        <v>400014251</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="21" max="21" width="15.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1148,327 +2258,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="D2">
+        <v>2091</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="19">
-        <v>-202</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4">
-        <v>2050</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2052</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
         <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5">
-        <v>2051</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
+        <v>2050</v>
+      </c>
+      <c r="H5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6">
-        <v>2052</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="J6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>2050</v>
-      </c>
-      <c r="J7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>2005</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>1998</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>2054</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="19">
-        <v>1234</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>8999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>85</v>
+        <v>-202</v>
       </c>
     </row>
   </sheetData>
@@ -1478,78 +2382,175 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>-202</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2">
-        <v>2005</v>
+        <v>2057</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3">
-        <v>1090</v>
+        <v>1290</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +2558,212 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="26.90625" customWidth="1"/>
+    <col min="8" max="8" width="29.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>1234</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>2021</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1575,13 +2781,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>20</v>
@@ -1604,13 +2810,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -1622,16 +2828,1319 @@
       <c r="I2" s="5"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="5" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" customWidth="1"/>
+    <col min="8" max="9" width="25.90625" customWidth="1"/>
+    <col min="10" max="11" width="33.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="16" max="16" width="27.1796875" customWidth="1"/>
+    <col min="17" max="18" width="30.7265625" customWidth="1"/>
+    <col min="20" max="20" width="34.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="38"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="5" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" customWidth="1"/>
+    <col min="8" max="9" width="25.90625" customWidth="1"/>
+    <col min="10" max="11" width="33.6328125" customWidth="1"/>
+    <col min="12" max="12" width="27.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="7" width="19.54296875" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="10" width="25.90625" customWidth="1"/>
+    <col min="11" max="11" width="33.6328125" customWidth="1"/>
+    <col min="13" max="13" width="32.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.54296875" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="10" width="25.90625" customWidth="1"/>
+    <col min="11" max="12" width="33.6328125" customWidth="1"/>
+    <col min="14" max="14" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1646,39 +4155,40 @@
     <col min="12" max="12" width="31.1796875" customWidth="1"/>
     <col min="13" max="13" width="28.26953125" customWidth="1"/>
     <col min="14" max="14" width="22.36328125" customWidth="1"/>
-    <col min="16" max="16" width="16.81640625" customWidth="1"/>
-    <col min="17" max="17" width="21.453125" customWidth="1"/>
-    <col min="18" max="18" width="21.1796875" customWidth="1"/>
-    <col min="19" max="19" width="22.6328125" customWidth="1"/>
-    <col min="20" max="20" width="34.90625" customWidth="1"/>
-    <col min="21" max="21" width="34.1796875" customWidth="1"/>
-    <col min="22" max="22" width="25.26953125" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="21.453125" customWidth="1"/>
+    <col min="20" max="20" width="21.1796875" customWidth="1"/>
+    <col min="21" max="21" width="22.6328125" customWidth="1"/>
+    <col min="22" max="22" width="34.90625" customWidth="1"/>
+    <col min="23" max="23" width="34.1796875" customWidth="1"/>
+    <col min="24" max="24" width="25.26953125" customWidth="1"/>
+    <col min="26" max="26" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>120</v>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>115</v>
+      <c r="C1" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>117</v>
+      <c r="G1" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>26</v>
@@ -1701,45 +4211,53 @@
       <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="W1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X1" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>118</v>
+      <c r="E2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="I2" s="10" t="s">
         <v>27</v>
       </c>
@@ -1763,14 +4281,19 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="W2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>95</v>
+      <c r="X2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1778,12 +4301,527 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="5" width="35.26953125" customWidth="1"/>
+    <col min="6" max="7" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="29.36328125" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+    <col min="11" max="11" width="27.7265625" customWidth="1"/>
+    <col min="12" max="12" width="31.1796875" customWidth="1"/>
+    <col min="13" max="13" width="28.26953125" customWidth="1"/>
+    <col min="14" max="14" width="22.36328125" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="21.453125" customWidth="1"/>
+    <col min="20" max="20" width="21.1796875" customWidth="1"/>
+    <col min="21" max="21" width="22.6328125" customWidth="1"/>
+    <col min="22" max="22" width="34.90625" customWidth="1"/>
+    <col min="23" max="23" width="34.1796875" customWidth="1"/>
+    <col min="25" max="25" width="33.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5">
+        <v>9898989898</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="5">
+        <v>9898989898</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="5">
+        <v>9898989898</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="5">
+        <v>9898989898</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="5">
+        <v>9898989898</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="5">
+        <v>9898989898</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="5">
+        <v>9898989898</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="W8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1794,6 +4832,7 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="23.1796875" customWidth="1"/>
     <col min="6" max="6" width="21.90625" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1801,37 +4840,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1839,12 +4878,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1852,172 +4891,71 @@
     <col min="1" max="1" width="19.36328125" customWidth="1"/>
     <col min="2" max="2" width="31.1796875" customWidth="1"/>
     <col min="3" max="3" width="19.90625" customWidth="1"/>
-    <col min="4" max="4" width="27.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="4" max="5" width="27.90625" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F1" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
+      <c r="F3" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2027,10 +4965,3765 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:GC3"/>
+  <sheetViews>
+    <sheetView topLeftCell="FZ1" workbookViewId="0">
+      <selection activeCell="GA2" sqref="GA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="42.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.36328125" customWidth="1"/>
+    <col min="16" max="16" width="26.81640625" customWidth="1"/>
+    <col min="17" max="17" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.81640625" customWidth="1"/>
+    <col min="29" max="29" width="31" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31" customWidth="1"/>
+    <col min="31" max="31" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="38.90625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="33" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="33" customWidth="1"/>
+    <col min="48" max="48" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.26953125" customWidth="1"/>
+    <col min="50" max="50" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="44.36328125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="35" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="36.81640625" customWidth="1"/>
+    <col min="72" max="72" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="47.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="44" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="44" customWidth="1"/>
+    <col min="87" max="87" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="49.26953125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="45.6328125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="46.08984375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="35" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="34.1796875" customWidth="1"/>
+    <col min="121" max="121" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="46.36328125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="47" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="49" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="50.81640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="41.36328125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="44.6328125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="50" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="32" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="41" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="36.1796875" customWidth="1"/>
+    <col min="166" max="166" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="34" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="37.7265625" customWidth="1"/>
+    <col min="170" max="170" width="37" customWidth="1"/>
+    <col min="171" max="171" width="29" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="48" customWidth="1"/>
+    <col min="173" max="173" width="49" customWidth="1"/>
+    <col min="174" max="174" width="52.54296875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="46.54296875" customWidth="1"/>
+    <col min="176" max="176" width="52.90625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="51.90625" customWidth="1"/>
+    <col min="179" max="179" width="59.36328125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="62" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="50.08984375" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:185" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK1" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BO1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="BP1" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="BQ1" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="BR1" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="BS1" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="BT1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU1" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="BV1" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="BW1" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="BX1" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="BY1" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ1" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="CA1" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="CB1" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="CC1" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="CD1" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE1" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="CF1" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="CG1" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="CH1" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="CI1" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="CJ1" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="CK1" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="CL1" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="CM1" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="CN1" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="CO1" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="CP1" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ1" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="CR1" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="CS1" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="CT1" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="CU1" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="CV1" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="CW1" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="CX1" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="CY1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="CZ1" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="DA1" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="DB1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="DC1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="DD1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="DE1" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="DF1" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="DG1" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="DH1" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="DI1" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="DJ1" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="DK1" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="DL1" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="DM1" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="DN1" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="DO1" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="DP1" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="DQ1" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="DR1" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="DS1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="DT1" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="DU1" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="DV1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="DW1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="DX1" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="DY1" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="DZ1" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="EA1" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="EB1" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="EC1" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="ED1" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="EE1" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="EF1" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="EG1" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="EH1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="EI1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="EJ1" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="EK1" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="EL1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="EM1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="EN1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="EO1" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="EP1" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="EQ1" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="ER1" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="ES1" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="ET1" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="EU1" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="EV1" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="EW1" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="EX1" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="EY1" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="EZ1" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="FA1" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="FB1" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="FC1" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="FD1" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="FE1" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="FF1" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="FG1" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="FH1" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="FI1" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="FJ1" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="FK1" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="FL1" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="FM1" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="FN1" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="FO1" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="FP1" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="FQ1" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="FR1" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="FS1" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="FT1" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="FU1" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="FV1" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="FW1" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="FX1" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="FY1" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="FZ1" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="GA1" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="GB1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="GC1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:185" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>107</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>107</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="GB2" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="GC2" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:185" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>110</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>110</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="GB3" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="GC3" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:GD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.7265625" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" customWidth="1"/>
+    <col min="8" max="8" width="42.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.36328125" customWidth="1"/>
+    <col min="17" max="17" width="26.81640625" customWidth="1"/>
+    <col min="18" max="18" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.81640625" customWidth="1"/>
+    <col min="30" max="30" width="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31" customWidth="1"/>
+    <col min="32" max="32" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="33" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="33" customWidth="1"/>
+    <col min="49" max="49" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.26953125" customWidth="1"/>
+    <col min="51" max="51" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="44.36328125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="35" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="36.81640625" customWidth="1"/>
+    <col min="73" max="73" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="47.453125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="44" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="44" customWidth="1"/>
+    <col min="88" max="88" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="49.26953125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="45.6328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="46.08984375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="35" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="34.1796875" customWidth="1"/>
+    <col min="122" max="122" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="46.36328125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="47" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="49" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="50.81640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="41.36328125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="44.6328125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="50" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="32" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="41" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="36.1796875" customWidth="1"/>
+    <col min="167" max="167" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="34" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="37.7265625" customWidth="1"/>
+    <col min="171" max="171" width="37" customWidth="1"/>
+    <col min="172" max="172" width="29" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="48" customWidth="1"/>
+    <col min="174" max="174" width="49" customWidth="1"/>
+    <col min="175" max="175" width="52.54296875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="46.54296875" customWidth="1"/>
+    <col min="177" max="177" width="52.90625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="51.90625" customWidth="1"/>
+    <col min="180" max="180" width="59.36328125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="62" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="50.08984375" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:186" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK1" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="BO1" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BP1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="BQ1" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="BR1" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="BS1" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="BT1" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="BU1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="BV1" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="BW1" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="BX1" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="BY1" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="BZ1" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="CA1" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="CB1" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="CC1" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="CD1" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="CE1" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF1" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG1" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="CH1" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="CI1" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="CJ1" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="CK1" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="CL1" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="CM1" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="CN1" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="CO1" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="CP1" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="CQ1" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="CR1" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="CS1" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="CT1" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="CU1" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="CV1" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="CW1" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="CX1" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="CY1" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="CZ1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="DA1" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="DB1" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="DC1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="DD1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="DE1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="DF1" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="DG1" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="DH1" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="DI1" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="DJ1" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="DK1" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="DL1" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="DM1" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="DN1" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="DO1" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="DP1" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="DQ1" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="DR1" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="DS1" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="DT1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="DU1" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="DV1" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="DW1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="DX1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="DY1" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="DZ1" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="EA1" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="EB1" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="EC1" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="ED1" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="EE1" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="EF1" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="EG1" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="EH1" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="EI1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="EJ1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="EK1" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="EL1" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="EM1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="EN1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="EO1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="EP1" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="EQ1" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="ER1" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="ES1" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="ET1" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="EU1" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="EV1" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="EW1" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="EX1" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="EY1" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="EZ1" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="FA1" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="FB1" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="FC1" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="FD1" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="FE1" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="FF1" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="FG1" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="FH1" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="FI1" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="FJ1" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="FK1" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="FL1" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="FM1" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="FN1" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="FO1" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="FP1" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="FQ1" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="FR1" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="FS1" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="FT1" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="FU1" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="FV1" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="FW1" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="FX1" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="FY1" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="FZ1" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="GA1" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="GB1" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="GC1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="GD1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:186" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>107</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>107</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="GC2" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="GD2" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:186" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>110</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>110</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>110</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>91</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2042,272 +8735,52 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5">
-        <v>400014251</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="21" max="21" width="15.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH2" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>